--- a/1 список.xlsx
+++ b/1 список.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinatmirzagalamov/dlain-cars/parserautoru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300B02FF-47B5-2043-849E-68794DF20B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBD3C1A-16EF-4441-8D2B-E27CB3CA92ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{A05B1AD3-B693-094C-831F-5380C663F09D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{A05B1AD3-B693-094C-831F-5380C663F09D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1159,18 +1159,9 @@
     <t>ZAZ</t>
   </si>
   <si>
-    <t>VAZ</t>
-  </si>
-  <si>
-    <t>KALINA</t>
-  </si>
-  <si>
     <t xml:space="preserve">6ER </t>
   </si>
   <si>
-    <t>GRANTURISMO</t>
-  </si>
-  <si>
     <t>НЕД_ПЛТ</t>
   </si>
   <si>
@@ -1235,6 +1226,15 @@
   </si>
   <si>
     <t>FJ_CRUISER</t>
+  </si>
+  <si>
+    <t>НЕД_ГЕН</t>
+  </si>
+  <si>
+    <t>GRAN_turismo</t>
+  </si>
+  <si>
+    <t>SLAVUTA</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1323,6 +1323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -19599,10 +19602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29EF557-48A3-C74C-A1B0-428FF0DC4FEE}">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19611,9 +19614,10 @@
     <col min="10" max="10" width="51.33203125" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19654,10 +19658,13 @@
         <v>330</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>3012</v>
       </c>
@@ -19684,7 +19691,7 @@
         <v>471</v>
       </c>
       <c r="I2" s="4">
-        <f>510-H2</f>
+        <f t="shared" ref="I2:I33" si="0">510-H2</f>
         <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -19696,8 +19703,9 @@
       <c r="M2" s="4">
         <v>3102</v>
       </c>
+      <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>492</v>
       </c>
@@ -19724,7 +19732,7 @@
         <v>472</v>
       </c>
       <c r="I3" s="4">
-        <f>510-H3</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -19733,11 +19741,14 @@
       <c r="L3" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="M3" s="4">
-        <v>1103</v>
+      <c r="M3" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4760888</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>974</v>
       </c>
@@ -19761,20 +19772,26 @@
         <v>478</v>
       </c>
       <c r="I4" s="4">
-        <f>510-H4</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>84</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>370</v>
+      <c r="N4" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="O4" s="6">
+        <v>21021798</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1930</v>
       </c>
@@ -19798,7 +19815,7 @@
         <v>490</v>
       </c>
       <c r="I5" s="4">
-        <f>510-H5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -19808,10 +19825,11 @@
         <v>30</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>375</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2692</v>
       </c>
@@ -19838,7 +19856,7 @@
         <v>483</v>
       </c>
       <c r="I6" s="4">
-        <f>510-H6</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -19848,10 +19866,11 @@
         <v>30</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>376</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>717</v>
       </c>
@@ -19875,23 +19894,15 @@
         <v>468</v>
       </c>
       <c r="I7" s="4">
-        <f>510-H7</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>372</v>
-      </c>
+      <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2422</v>
       </c>
@@ -19915,7 +19926,7 @@
         <v>467</v>
       </c>
       <c r="I8" s="4">
-        <f>510-H8</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -19925,10 +19936,11 @@
         <v>30</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>374</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>3081</v>
       </c>
@@ -19955,7 +19967,7 @@
         <v>483</v>
       </c>
       <c r="I9" s="4">
-        <f>510-H9</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -19967,8 +19979,9 @@
       <c r="M9" s="4" t="s">
         <v>358</v>
       </c>
+      <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2581</v>
       </c>
@@ -19995,7 +20008,7 @@
         <v>492</v>
       </c>
       <c r="I10" s="4">
-        <f>510-H10</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -20007,8 +20020,9 @@
       <c r="M10" s="4" t="s">
         <v>351</v>
       </c>
+      <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2436</v>
       </c>
@@ -20032,7 +20046,7 @@
         <v>485</v>
       </c>
       <c r="I11" s="4">
-        <f>510-H11</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="J11" s="4" t="s">
@@ -20047,8 +20061,9 @@
       <c r="N11" s="4" t="s">
         <v>356</v>
       </c>
+      <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1632</v>
       </c>
@@ -20075,7 +20090,7 @@
         <v>464</v>
       </c>
       <c r="I12" s="4">
-        <f>510-H12</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -20085,10 +20100,11 @@
         <v>336</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>377</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1880</v>
       </c>
@@ -20112,7 +20128,7 @@
         <v>472</v>
       </c>
       <c r="I13" s="4">
-        <f>510-H13</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -20124,8 +20140,9 @@
       <c r="M13" s="4" t="s">
         <v>362</v>
       </c>
+      <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1761</v>
       </c>
@@ -20152,7 +20169,7 @@
         <v>484</v>
       </c>
       <c r="I14" s="4">
-        <f>510-H14</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -20164,8 +20181,9 @@
       <c r="M14" s="4" t="s">
         <v>357</v>
       </c>
+      <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1981</v>
       </c>
@@ -20189,20 +20207,21 @@
         <v>470</v>
       </c>
       <c r="I15" s="4">
-        <f>510-H15</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>363</v>
       </c>
+      <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>308</v>
       </c>
@@ -20226,7 +20245,7 @@
         <v>470</v>
       </c>
       <c r="I16" s="4">
-        <f>510-H16</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J16" s="4" t="s">
@@ -20236,10 +20255,11 @@
         <v>341</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>380</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2642</v>
       </c>
@@ -20266,7 +20286,7 @@
         <v>475</v>
       </c>
       <c r="I17" s="4">
-        <f>510-H17</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -20278,8 +20298,9 @@
       <c r="M17" s="4" t="s">
         <v>361</v>
       </c>
+      <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1744</v>
       </c>
@@ -20306,20 +20327,21 @@
         <v>480</v>
       </c>
       <c r="I18" s="4">
-        <f>510-H18</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>82</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>381</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2685</v>
       </c>
@@ -20343,20 +20365,21 @@
         <v>471</v>
       </c>
       <c r="I19" s="4">
-        <f>510-H19</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>112</v>
       </c>
       <c r="L19" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>382</v>
-      </c>
+      <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>646</v>
       </c>
@@ -20380,7 +20403,7 @@
         <v>469</v>
       </c>
       <c r="I20" s="4">
-        <f>510-H20</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -20390,13 +20413,14 @@
         <v>342</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N20" s="4">
         <v>250</v>
       </c>
+      <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>323</v>
       </c>
@@ -20420,7 +20444,7 @@
         <v>474</v>
       </c>
       <c r="I21" s="4">
-        <f>510-H21</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -20432,8 +20456,9 @@
       <c r="M21" s="4">
         <v>2</v>
       </c>
+      <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>224</v>
       </c>
@@ -20460,7 +20485,7 @@
         <v>473</v>
       </c>
       <c r="I22" s="4">
-        <f>510-H22</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -20470,10 +20495,11 @@
         <v>339</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>384</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2838</v>
       </c>
@@ -20497,20 +20523,21 @@
         <v>494</v>
       </c>
       <c r="I23" s="4">
-        <f>510-H23</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>347</v>
       </c>
+      <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>3176</v>
       </c>
@@ -20537,20 +20564,21 @@
         <v>493</v>
       </c>
       <c r="I24" s="4">
-        <f>510-H24</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>350</v>
       </c>
+      <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1782</v>
       </c>
@@ -20577,20 +20605,21 @@
         <v>477</v>
       </c>
       <c r="I25" s="4">
-        <f>510-H25</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>87</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>385</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>354</v>
       </c>
@@ -20614,20 +20643,21 @@
         <v>468</v>
       </c>
       <c r="I26" s="4">
-        <f>510-H26</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>126</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>364</v>
       </c>
+      <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2836</v>
       </c>
@@ -20651,7 +20681,7 @@
         <v>496</v>
       </c>
       <c r="I27" s="4">
-        <f>510-H27</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -20663,8 +20693,9 @@
       <c r="M27" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2713</v>
       </c>
@@ -20691,7 +20722,7 @@
         <v>485</v>
       </c>
       <c r="I28" s="4">
-        <f>510-H28</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="J28" s="4" t="s">
@@ -20703,8 +20734,9 @@
       <c r="M28" s="4" t="s">
         <v>367</v>
       </c>
+      <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>3013</v>
       </c>
@@ -20731,7 +20763,7 @@
         <v>471</v>
       </c>
       <c r="I29" s="4">
-        <f>510-H29</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -20741,10 +20773,11 @@
         <v>333</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2647</v>
       </c>
@@ -20768,7 +20801,7 @@
         <v>463</v>
       </c>
       <c r="I30" s="4">
-        <f>510-H30</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -20780,8 +20813,9 @@
       <c r="M30" s="4" t="s">
         <v>365</v>
       </c>
+      <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2487</v>
       </c>
@@ -20805,7 +20839,7 @@
         <v>493</v>
       </c>
       <c r="I31" s="4">
-        <f>510-H31</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -20817,8 +20851,9 @@
       <c r="M31" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2124</v>
       </c>
@@ -20842,7 +20877,7 @@
         <v>482</v>
       </c>
       <c r="I32" s="4">
-        <f>510-H32</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -20852,13 +20887,14 @@
         <v>335</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>388</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>3018</v>
       </c>
@@ -20885,7 +20921,7 @@
         <v>499</v>
       </c>
       <c r="I33" s="4">
-        <f>510-H33</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J33" s="4" t="s">
@@ -20897,8 +20933,9 @@
       <c r="M33" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>904</v>
       </c>
@@ -20925,7 +20962,7 @@
         <v>493</v>
       </c>
       <c r="I34" s="4">
-        <f>510-H34</f>
+        <f t="shared" ref="I34:I65" si="1">510-H34</f>
         <v>17</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -20937,8 +20974,9 @@
       <c r="M34" s="4" t="s">
         <v>348</v>
       </c>
+      <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2768</v>
       </c>
@@ -20965,7 +21003,7 @@
         <v>486</v>
       </c>
       <c r="I35" s="4">
-        <f>510-H35</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -20977,8 +21015,9 @@
       <c r="M35" s="4" t="s">
         <v>359</v>
       </c>
+      <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2231</v>
       </c>
@@ -21005,7 +21044,7 @@
         <v>458</v>
       </c>
       <c r="I36" s="4">
-        <f>510-H36</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -21017,8 +21056,9 @@
       <c r="M36" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>294</v>
       </c>
@@ -21042,7 +21082,7 @@
         <v>457</v>
       </c>
       <c r="I37" s="4">
-        <f>510-H37</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -21054,8 +21094,9 @@
       <c r="M37" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1459</v>
       </c>
@@ -21082,7 +21123,7 @@
         <v>456</v>
       </c>
       <c r="I38" s="4">
-        <f>510-H38</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -21094,8 +21135,9 @@
       <c r="M38" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>168</v>
       </c>
@@ -21122,7 +21164,7 @@
         <v>495</v>
       </c>
       <c r="I39" s="4">
-        <f>510-H39</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J39" s="4" t="s">
@@ -21134,8 +21176,9 @@
       <c r="M39" s="4" t="s">
         <v>345</v>
       </c>
+      <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>768</v>
       </c>
@@ -21159,7 +21202,7 @@
         <v>495</v>
       </c>
       <c r="I40" s="4">
-        <f>510-H40</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -21171,8 +21214,9 @@
       <c r="M40" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>3554</v>
       </c>
@@ -21199,7 +21243,7 @@
         <v>499</v>
       </c>
       <c r="I41" s="4">
-        <f>510-H41</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J41" s="4" t="s">
@@ -21209,13 +21253,14 @@
         <v>332</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>391</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2084</v>
       </c>
@@ -21242,7 +21287,7 @@
         <v>499</v>
       </c>
       <c r="I42" s="4">
-        <f>510-H42</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J42" s="4" t="s">
@@ -21254,8 +21299,9 @@
       <c r="M42" s="4" t="s">
         <v>352</v>
       </c>
+      <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2677</v>
       </c>
@@ -21282,7 +21328,7 @@
         <v>497</v>
       </c>
       <c r="I43" s="4">
-        <f>510-H43</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
@@ -21297,8 +21343,9 @@
       <c r="N43" s="4" t="s">
         <v>355</v>
       </c>
+      <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2140</v>
       </c>
@@ -21325,7 +21372,7 @@
         <v>473</v>
       </c>
       <c r="I44" s="4">
-        <f>510-H44</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -21335,10 +21382,11 @@
         <v>331</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>392</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>172</v>
       </c>
@@ -21365,7 +21413,7 @@
         <v>472</v>
       </c>
       <c r="I45" s="4">
-        <f>510-H45</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -21375,10 +21423,11 @@
         <v>331</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>393</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>152</v>
       </c>
@@ -21405,7 +21454,7 @@
         <v>466</v>
       </c>
       <c r="I46" s="4">
-        <f>510-H46</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -21415,10 +21464,11 @@
         <v>331</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>394</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>295</v>
       </c>
@@ -21442,7 +21492,7 @@
         <v>462</v>
       </c>
       <c r="I47" s="4">
-        <f>510-H47</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -21454,8 +21504,9 @@
       <c r="M47" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1578</v>
       </c>
@@ -21479,7 +21530,7 @@
         <v>462</v>
       </c>
       <c r="I48" s="4">
-        <f>510-H48</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="J48" s="4" t="s">
@@ -21491,8 +21542,9 @@
       <c r="M48" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2440</v>
       </c>
@@ -21516,14 +21568,15 @@
         <v>455</v>
       </c>
       <c r="I49" s="4">
-        <f>510-H49</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2620</v>
       </c>
@@ -21550,14 +21603,15 @@
         <v>455</v>
       </c>
       <c r="I50" s="4">
-        <f>510-H50</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2972</v>
       </c>
@@ -21584,14 +21638,15 @@
         <v>454</v>
       </c>
       <c r="I51" s="4">
-        <f>510-H51</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>3627</v>
       </c>
@@ -21615,14 +21670,15 @@
         <v>454</v>
       </c>
       <c r="I52" s="4">
-        <f>510-H52</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1831</v>
       </c>
@@ -21649,14 +21705,15 @@
         <v>453</v>
       </c>
       <c r="I53" s="4">
-        <f>510-H53</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>165</v>
       </c>
+      <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>4</v>
       </c>
@@ -21683,14 +21740,15 @@
         <v>451</v>
       </c>
       <c r="I54" s="4">
-        <f>510-H54</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>1287</v>
       </c>
@@ -21717,14 +21775,15 @@
         <v>451</v>
       </c>
       <c r="I55" s="4">
-        <f>510-H55</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>1697</v>
       </c>
@@ -21751,14 +21810,15 @@
         <v>450</v>
       </c>
       <c r="I56" s="4">
-        <f>510-H56</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>1747</v>
       </c>
@@ -21782,14 +21842,15 @@
         <v>448</v>
       </c>
       <c r="I57" s="4">
-        <f>510-H57</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>178</v>
       </c>
+      <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>636</v>
       </c>
@@ -21813,14 +21874,15 @@
         <v>447</v>
       </c>
       <c r="I58" s="4">
-        <f>510-H58</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>181</v>
       </c>
+      <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>1181</v>
       </c>
@@ -21847,14 +21909,15 @@
         <v>445</v>
       </c>
       <c r="I59" s="4">
-        <f>510-H59</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>185</v>
       </c>
+      <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>3193</v>
       </c>
@@ -21881,14 +21944,15 @@
         <v>445</v>
       </c>
       <c r="I60" s="4">
-        <f>510-H60</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>3202</v>
       </c>
@@ -21915,14 +21979,15 @@
         <v>444</v>
       </c>
       <c r="I61" s="4">
-        <f>510-H61</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>1360</v>
       </c>
@@ -21949,14 +22014,15 @@
         <v>443</v>
       </c>
       <c r="I62" s="4">
-        <f>510-H62</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>1101</v>
       </c>
@@ -21980,14 +22046,15 @@
         <v>440</v>
       </c>
       <c r="I63" s="4">
-        <f>510-H63</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>197</v>
       </c>
+      <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>489</v>
       </c>
@@ -22014,14 +22081,15 @@
         <v>439</v>
       </c>
       <c r="I64" s="4">
-        <f>510-H64</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>3581</v>
       </c>
@@ -22045,14 +22113,15 @@
         <v>438</v>
       </c>
       <c r="I65" s="4">
-        <f>510-H65</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>202</v>
       </c>
+      <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>137</v>
       </c>
@@ -22079,14 +22148,15 @@
         <v>437</v>
       </c>
       <c r="I66" s="4">
-        <f>510-H66</f>
+        <f t="shared" ref="I66:I97" si="2">510-H66</f>
         <v>73</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>206</v>
       </c>
+      <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>566</v>
       </c>
@@ -22110,14 +22180,15 @@
         <v>437</v>
       </c>
       <c r="I67" s="4">
-        <f>510-H67</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>763</v>
       </c>
@@ -22132,14 +22203,15 @@
         <v>435</v>
       </c>
       <c r="I68" s="4">
-        <f>510-H68</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>334</v>
       </c>
@@ -22154,14 +22226,15 @@
         <v>434</v>
       </c>
       <c r="I69" s="4">
-        <f>510-H69</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>1232</v>
       </c>
@@ -22185,14 +22258,15 @@
         <v>433</v>
       </c>
       <c r="I70" s="4">
-        <f>510-H70</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>1428</v>
       </c>
@@ -22216,14 +22290,15 @@
         <v>433</v>
       </c>
       <c r="I71" s="4">
-        <f>510-H71</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>1472</v>
       </c>
@@ -22250,14 +22325,15 @@
         <v>433</v>
       </c>
       <c r="I72" s="4">
-        <f>510-H72</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2534</v>
       </c>
@@ -22284,14 +22360,15 @@
         <v>433</v>
       </c>
       <c r="I73" s="4">
-        <f>510-H73</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>3537</v>
       </c>
@@ -22318,14 +22395,15 @@
         <v>433</v>
       </c>
       <c r="I74" s="4">
-        <f>510-H74</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2514</v>
       </c>
@@ -22352,14 +22430,15 @@
         <v>431</v>
       </c>
       <c r="I75" s="4">
-        <f>510-H75</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2066</v>
       </c>
@@ -22386,14 +22465,15 @@
         <v>430</v>
       </c>
       <c r="I76" s="4">
-        <f>510-H76</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>3561</v>
       </c>
@@ -22417,14 +22497,15 @@
         <v>430</v>
       </c>
       <c r="I77" s="4">
-        <f>510-H77</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>309</v>
       </c>
@@ -22448,14 +22529,15 @@
         <v>428</v>
       </c>
       <c r="I78" s="4">
-        <f>510-H78</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>237</v>
       </c>
+      <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>1901</v>
       </c>
@@ -22479,14 +22561,15 @@
         <v>428</v>
       </c>
       <c r="I79" s="4">
-        <f>510-H79</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>239</v>
       </c>
+      <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>2509</v>
       </c>
@@ -22510,14 +22593,15 @@
         <v>428</v>
       </c>
       <c r="I80" s="4">
-        <f>510-H80</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>241</v>
       </c>
+      <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>2159</v>
       </c>
@@ -22532,14 +22616,15 @@
         <v>427</v>
       </c>
       <c r="I81" s="4">
-        <f>510-H81</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>2512</v>
       </c>
@@ -22566,14 +22651,15 @@
         <v>424</v>
       </c>
       <c r="I82" s="4">
-        <f>510-H82</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>86</v>
       </c>
@@ -22600,14 +22686,15 @@
         <v>423</v>
       </c>
       <c r="I83" s="4">
-        <f>510-H83</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>1342</v>
       </c>
@@ -22634,14 +22721,15 @@
         <v>423</v>
       </c>
       <c r="I84" s="4">
-        <f>510-H84</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>111</v>
       </c>
@@ -22668,14 +22756,15 @@
         <v>422</v>
       </c>
       <c r="I85" s="4">
-        <f>510-H85</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3417</v>
       </c>
@@ -22702,14 +22791,15 @@
         <v>422</v>
       </c>
       <c r="I86" s="4">
-        <f>510-H86</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>257</v>
       </c>
+      <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>881</v>
       </c>
@@ -22733,14 +22823,15 @@
         <v>421</v>
       </c>
       <c r="I87" s="4">
-        <f>510-H87</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>259</v>
       </c>
+      <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>1302</v>
       </c>
@@ -22767,14 +22858,15 @@
         <v>421</v>
       </c>
       <c r="I88" s="4">
-        <f>510-H88</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>263</v>
       </c>
+      <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>838</v>
       </c>
@@ -22801,14 +22893,15 @@
         <v>419</v>
       </c>
       <c r="I89" s="4">
-        <f>510-H89</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>267</v>
       </c>
+      <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>1177</v>
       </c>
@@ -22823,14 +22916,15 @@
         <v>419</v>
       </c>
       <c r="I90" s="4">
-        <f>510-H90</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>1477</v>
       </c>
@@ -22845,14 +22939,15 @@
         <v>419</v>
       </c>
       <c r="I91" s="4">
-        <f>510-H91</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>1857</v>
       </c>
@@ -22879,14 +22974,15 @@
         <v>419</v>
       </c>
       <c r="I92" s="4">
-        <f>510-H92</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>273</v>
       </c>
+      <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>6</v>
       </c>
@@ -22913,14 +23009,15 @@
         <v>417</v>
       </c>
       <c r="I93" s="4">
-        <f>510-H93</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>275</v>
       </c>
+      <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>187</v>
       </c>
@@ -22947,14 +23044,15 @@
         <v>416</v>
       </c>
       <c r="I94" s="4">
-        <f>510-H94</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>278</v>
       </c>
+      <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>714</v>
       </c>
@@ -22978,14 +23076,15 @@
         <v>415</v>
       </c>
       <c r="I95" s="4">
-        <f>510-H95</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>2325</v>
       </c>
@@ -23012,14 +23111,15 @@
         <v>415</v>
       </c>
       <c r="I96" s="4">
-        <f>510-H96</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>281</v>
       </c>
+      <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>166</v>
       </c>
@@ -23046,14 +23146,15 @@
         <v>414</v>
       </c>
       <c r="I97" s="4">
-        <f>510-H97</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>285</v>
       </c>
+      <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>2234</v>
       </c>
@@ -23080,14 +23181,15 @@
         <v>412</v>
       </c>
       <c r="I98" s="4">
-        <f>510-H98</f>
+        <f t="shared" ref="I98:I129" si="3">510-H98</f>
         <v>98</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>288</v>
       </c>
+      <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>2079</v>
       </c>
@@ -23114,14 +23216,15 @@
         <v>411</v>
       </c>
       <c r="I99" s="4">
-        <f>510-H99</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>291</v>
       </c>
+      <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>2985</v>
       </c>
@@ -23148,14 +23251,15 @@
         <v>410</v>
       </c>
       <c r="I100" s="4">
-        <f>510-H100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>3128</v>
       </c>
@@ -23182,14 +23286,15 @@
         <v>410</v>
       </c>
       <c r="I101" s="4">
-        <f>510-H101</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>297</v>
       </c>
+      <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>3458</v>
       </c>
@@ -23213,14 +23318,15 @@
         <v>410</v>
       </c>
       <c r="I102" s="4">
-        <f>510-H102</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>319</v>
       </c>
@@ -23244,14 +23350,15 @@
         <v>409</v>
       </c>
       <c r="I103" s="4">
-        <f>510-H103</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>302</v>
       </c>
+      <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>1165</v>
       </c>
@@ -23275,14 +23382,15 @@
         <v>409</v>
       </c>
       <c r="I104" s="4">
-        <f>510-H104</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>304</v>
       </c>
+      <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>115</v>
       </c>
@@ -23306,14 +23414,15 @@
         <v>408</v>
       </c>
       <c r="I105" s="4">
-        <f>510-H105</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>306</v>
       </c>
+      <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>2022</v>
       </c>
@@ -23337,14 +23446,15 @@
         <v>408</v>
       </c>
       <c r="I106" s="4">
-        <f>510-H106</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>308</v>
       </c>
+      <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>3098</v>
       </c>
@@ -23371,14 +23481,15 @@
         <v>408</v>
       </c>
       <c r="I107" s="4">
-        <f>510-H107</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>311</v>
       </c>
+      <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>263</v>
       </c>
@@ -23402,14 +23513,15 @@
         <v>407</v>
       </c>
       <c r="I108" s="4">
-        <f>510-H108</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>314</v>
       </c>
+      <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>1670</v>
       </c>
@@ -23424,14 +23536,15 @@
         <v>407</v>
       </c>
       <c r="I109" s="4">
-        <f>510-H109</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>211</v>
       </c>
+      <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>2547</v>
       </c>
@@ -23458,14 +23571,15 @@
         <v>407</v>
       </c>
       <c r="I110" s="4">
-        <f>510-H110</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>318</v>
       </c>
+      <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>3530</v>
       </c>
@@ -23489,14 +23603,15 @@
         <v>404</v>
       </c>
       <c r="I111" s="4">
-        <f>510-H111</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>320</v>
       </c>
+      <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>947</v>
       </c>
@@ -23520,14 +23635,15 @@
         <v>403</v>
       </c>
       <c r="I112" s="4">
-        <f>510-H112</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="J112" s="4" t="s">
         <v>322</v>
       </c>
+      <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>3096</v>
       </c>
@@ -23554,14 +23670,15 @@
         <v>402</v>
       </c>
       <c r="I113" s="4">
-        <f>510-H113</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>324</v>
       </c>
+      <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>57</v>
       </c>
@@ -23588,7 +23705,7 @@
         <v>401</v>
       </c>
       <c r="I114" s="4">
-        <f>510-H114</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="J114" s="4" t="s">
@@ -23598,6 +23715,7 @@
         <f>SUM(I:I)</f>
         <v>6991</v>
       </c>
+      <c r="O114" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N114">
